--- a/Strings/Problems.xlsx
+++ b/Strings/Problems.xlsx
@@ -13,15 +13,15 @@
     <sheet name="Palindrome" sheetId="4" r:id="rId4"/>
     <sheet name="Binary Strings" sheetId="5" r:id="rId5"/>
     <sheet name="SubSequence" sheetId="6" r:id="rId6"/>
-    <sheet name="Misc" sheetId="8" r:id="rId7"/>
-    <sheet name="Patern Searching" sheetId="7" r:id="rId8"/>
+    <sheet name="Patern Searching" sheetId="7" r:id="rId7"/>
+    <sheet name="Misc" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="237">
   <si>
     <t>1. Print reverse of a string using recursion</t>
   </si>
@@ -646,6 +646,93 @@
   </si>
   <si>
     <t>Nice approach, you just need to count the number of 1s in both the strings if they are equal then both the binary representaions are equal. Use 'Long.bitCount(a)' method to count the number of elements.</t>
+  </si>
+  <si>
+    <t>Its simple approach you don't need to implement</t>
+  </si>
+  <si>
+    <t>Brute force, algo Is explained</t>
+  </si>
+  <si>
+    <t>You know the solution using hashmap</t>
+  </si>
+  <si>
+    <t>Easy you could do it easily</t>
+  </si>
+  <si>
+    <t>Partially Done</t>
+  </si>
+  <si>
+    <t>Need clarification on this problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create 2 alternate string of 0 and 1, now compare given string with this 2 strings. Count the miss match and in the end. Return the minimum count. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> simple to implement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amazon</t>
+  </si>
+  <si>
+    <t>you had think of best possible solution, no need to implement. If you think of this kind of problems</t>
+  </si>
+  <si>
+    <t>It’s a basic variation of fibonacci series. You must know the solution.</t>
+  </si>
+  <si>
+    <t>Method using queue is easy to understand and implement.</t>
+  </si>
+  <si>
+    <t>you already had done it on leetcode</t>
+  </si>
+  <si>
+    <t>this is the simple approach of context free grammer</t>
+  </si>
+  <si>
+    <t>Simple to add 1 bit to the bit string</t>
+  </si>
+  <si>
+    <t>it’s a basic approach to find the first and last position of 1 and then find if 0 exist in between or not. If exist then return false.</t>
+  </si>
+  <si>
+    <t>1st approach is better, don't know how to implement the regular expression.</t>
+  </si>
+  <si>
+    <t>Review this algo, its simple and easy to implement</t>
+  </si>
+  <si>
+    <t>You had already did this algo on leetcode or somewhere else</t>
+  </si>
+  <si>
+    <t>Easy problem you just need to know the fundamental fo XOR of multiple bits.</t>
+  </si>
+  <si>
+    <t>you know the solution.</t>
+  </si>
+  <si>
+    <t>Can be easily done using HashMaps</t>
+  </si>
+  <si>
+    <t>Easy to Implement</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>its easy, you know how to do it using hashmap</t>
+  </si>
+  <si>
+    <t>Its an easy way to reverse to arrays of strings</t>
+  </si>
+  <si>
+    <t>Its done using Stack, try the same problem on interviewbit and leetcode</t>
+  </si>
+  <si>
+    <t>Its an hard problem, can we think of it as a stack ?</t>
+  </si>
+  <si>
+    <t>its easy to implement it using stack, but without extra space, think of it again.</t>
   </si>
 </sst>
 </file>
@@ -669,12 +756,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -690,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -715,6 +808,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1555,12 +1658,13 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1578,6 +1682,12 @@
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1588,10 +1698,22 @@
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,19 +1855,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="82.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1756,104 +1879,209 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2061,15 +2289,168 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="79.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.geeksforgeeks.org/searching-for-patterns-set-1-naive-pattern-searching/"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.geeksforgeeks.org/searching-for-patterns-set-2-kmp-algorithm/"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.geeksforgeeks.org/searching-for-patterns-set-3-rabin-karp-algorithm/"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.geeksforgeeks.org/searching-for-patterns-set-5-finite-automata/"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.geeksforgeeks.org/pattern-searching-set-7-boyer-moore-algorithm-bad-character-heuristic/"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.geeksforgeeks.org/wildcard-character-matching/"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.geeksforgeeks.org/anagram-substring-search-search-permutations/"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-1/"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-2/"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-3-2/"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-4/"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.geeksforgeeks.org/find-all-occurrences-of-the-word-in-a-matrix/"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.geeksforgeeks.org/maximum-length-prefix-one-string-occurs-subsequence-another/"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.geeksforgeeks.org/wildcard-pattern-matching/"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.geeksforgeeks.org/replace-occurrences-string-ab-c-without-using-extra-space/"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.geeksforgeeks.org/aho-corasick-algorithm-pattern-searching/"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.geeksforgeeks.org/find-patterns-101-given-string/"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.geeksforgeeks.org/find-patterns-101-given-string-set-2regular-expression-approach/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.140625" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,14 +2468,26 @@
       <c r="A3" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2102,26 +2495,56 @@
       <c r="A6" s="5" t="s">
         <v>145</v>
       </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>146</v>
       </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2137,10 +2560,16 @@
       <c r="A13" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,156 +2769,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="79.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.geeksforgeeks.org/searching-for-patterns-set-1-naive-pattern-searching/"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.geeksforgeeks.org/searching-for-patterns-set-2-kmp-algorithm/"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.geeksforgeeks.org/searching-for-patterns-set-3-rabin-karp-algorithm/"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.geeksforgeeks.org/searching-for-patterns-set-5-finite-automata/"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.geeksforgeeks.org/pattern-searching-set-7-boyer-moore-algorithm-bad-character-heuristic/"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.geeksforgeeks.org/wildcard-character-matching/"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.geeksforgeeks.org/anagram-substring-search-search-permutations/"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-1/"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-2/"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-3-2/"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.geeksforgeeks.org/manachers-algorithm-linear-time-longest-palindromic-substring-part-4/"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.geeksforgeeks.org/z-algorithm-linear-time-pattern-searching-algorithm/"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://www.geeksforgeeks.org/find-all-occurrences-of-the-word-in-a-matrix/"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.geeksforgeeks.org/maximum-length-prefix-one-string-occurs-subsequence-another/"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://www.geeksforgeeks.org/wildcard-pattern-matching/"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.geeksforgeeks.org/replace-occurrences-string-ab-c-without-using-extra-space/"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://www.geeksforgeeks.org/aho-corasick-algorithm-pattern-searching/"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://www.geeksforgeeks.org/find-patterns-101-given-string/"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://www.geeksforgeeks.org/find-patterns-101-given-string-set-2regular-expression-approach/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>